--- a/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-A23-022.xlsx
+++ b/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-A23-022.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>329.980000</t>
+          <t>1285.200000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -524,7 +524,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>18.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>329.98</t>
+          <t>1285.19</t>
         </is>
       </c>
     </row>
